--- a/Output/OSC/EXIM/EXIM_Assistance.xlsx
+++ b/Output/OSC/EXIM/EXIM_Assistance.xlsx
@@ -107,8 +107,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -147,8 +147,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/Output/OSC/EXIM/EXIM_Assistance.xlsx
+++ b/Output/OSC/EXIM/EXIM_Assistance.xlsx
@@ -107,8 +107,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -147,8 +147,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/Output/OSC/EXIM/EXIM_Assistance.xlsx
+++ b/Output/OSC/EXIM/EXIM_Assistance.xlsx
@@ -7,12 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Crit" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Status" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Type" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">program</t>
   </si>
@@ -99,16 +101,36 @@
   </si>
   <si>
     <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guarantee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working Capital</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -144,11 +166,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,37 +535,37 @@
       <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="N2" s="2" t="n">
         <v>318283710.6</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="O2" s="2" t="n">
         <v>708932625.88</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="P2" s="2" t="n">
         <v>1928896083.89</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="Q2" s="2" t="n">
         <v>1046998761.06</v>
       </c>
-      <c r="R2" s="3" t="n">
+      <c r="R2" s="2" t="n">
         <v>675638093.46</v>
       </c>
-      <c r="S2" s="3" t="n">
+      <c r="S2" s="2" t="n">
         <v>130363067.88</v>
       </c>
-      <c r="T2" s="3" t="n">
+      <c r="T2" s="2" t="n">
         <v>105787498</v>
       </c>
-      <c r="U2" s="3" t="n">
+      <c r="U2" s="2" t="n">
         <v>109555302</v>
       </c>
-      <c r="V2" s="3" t="n">
+      <c r="V2" s="2" t="n">
         <v>1620000</v>
       </c>
-      <c r="W2" s="3" t="n">
+      <c r="W2" s="2" t="n">
         <v>5037093109.33</v>
       </c>
-      <c r="X2" s="3" t="n">
+      <c r="X2" s="2" t="n">
         <v>3430993723.4</v>
       </c>
       <c r="Y2" s="1" t="n">
@@ -572,37 +596,37 @@
       <c r="M3" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="3" t="str">
+      <c r="N3" s="2" t="str">
         <f>Sum(N2:N2)</f>
       </c>
-      <c r="O3" s="3" t="str">
+      <c r="O3" s="2" t="str">
         <f>Sum(O2:O2)</f>
       </c>
-      <c r="P3" s="3" t="str">
+      <c r="P3" s="2" t="str">
         <f>Sum(P2:P2)</f>
       </c>
-      <c r="Q3" s="3" t="str">
+      <c r="Q3" s="2" t="str">
         <f>Sum(Q2:Q2)</f>
       </c>
-      <c r="R3" s="3" t="str">
+      <c r="R3" s="2" t="str">
         <f>Sum(R2:R2)</f>
       </c>
-      <c r="S3" s="3" t="str">
+      <c r="S3" s="2" t="str">
         <f>Sum(S2:S2)</f>
       </c>
-      <c r="T3" s="3" t="str">
+      <c r="T3" s="2" t="str">
         <f>Sum(T2:T2)</f>
       </c>
-      <c r="U3" s="3" t="str">
+      <c r="U3" s="2" t="str">
         <f>Sum(U2:U2)</f>
       </c>
-      <c r="V3" s="3" t="str">
+      <c r="V3" s="2" t="str">
         <f>Sum(V2:V2)</f>
       </c>
-      <c r="W3" s="3" t="str">
+      <c r="W3" s="2" t="str">
         <f>Sum(W2:W2)</f>
       </c>
-      <c r="X3" s="3" t="str">
+      <c r="X3" s="2" t="str">
         <f>Sum(X2:X2)</f>
       </c>
       <c r="Y3" s="1" t="str">
@@ -692,37 +716,37 @@
       <c r="M7" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="N7" s="2" t="n">
         <v>379136257.908385</v>
       </c>
-      <c r="O7" s="3" t="n">
+      <c r="O7" s="2" t="n">
         <v>897874952.523335</v>
       </c>
-      <c r="P7" s="3" t="n">
+      <c r="P7" s="2" t="n">
         <v>2387622334.00712</v>
       </c>
-      <c r="Q7" s="3" t="n">
+      <c r="Q7" s="2" t="n">
         <v>1280836426.74055</v>
       </c>
-      <c r="R7" s="3" t="n">
+      <c r="R7" s="2" t="n">
         <v>829466573.838919</v>
       </c>
-      <c r="S7" s="3" t="n">
+      <c r="S7" s="2" t="n">
         <v>145238216.810986</v>
       </c>
-      <c r="T7" s="3" t="n">
+      <c r="T7" s="2" t="n">
         <v>130261245.499212</v>
       </c>
-      <c r="U7" s="3" t="n">
+      <c r="U7" s="2" t="n">
         <v>135374166.63432</v>
       </c>
-      <c r="V7" s="3" t="n">
+      <c r="V7" s="2" t="n">
         <v>2167256.9035638</v>
       </c>
-      <c r="W7" s="3" t="n">
+      <c r="W7" s="2" t="n">
         <v>5992075718.93016</v>
       </c>
-      <c r="X7" s="3" t="n">
+      <c r="X7" s="2" t="n">
         <v>4009884360.123</v>
       </c>
       <c r="Y7" s="1" t="n">
@@ -750,17 +774,17 @@
       <c r="A8" t="str">
         <f>M8</f>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
@@ -774,4 +798,240 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>4708525908.23</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>317549234.54</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="3" t="str">
+        <f>Sum(N2:N2)</f>
+      </c>
+      <c r="O3" s="3" t="str">
+        <f>Sum(O2:O2)</f>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>5793327846.85168</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>394649584.014714</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>850558403.33</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>1568098368.04</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>1286773861</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>1320644510.4</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="5" t="str">
+        <f>Sum(N2:N2)</f>
+      </c>
+      <c r="O3" s="5" t="str">
+        <f>Sum(O2:O2)</f>
+      </c>
+      <c r="P3" s="5" t="str">
+        <f>Sum(P2:P2)</f>
+      </c>
+      <c r="Q3" s="5" t="str">
+        <f>Sum(Q2:Q2)</f>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>1069332501.26643</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>1925461736.14809</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>1575047154.93259</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>1618136038.51928</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>